--- a/Producer Dingen/Scrumlog.xlsx
+++ b/Producer Dingen/Scrumlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Scrumweek 28 Nov - 2 Dec</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>Wat dingen in het maincharacter aanpassen en animaties proberen te fixen.</t>
+  </si>
+  <si>
+    <t>Detection scripts gemaakt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verder gegaan met Combat </t>
+  </si>
+  <si>
+    <t>Gun guard is af. Modular pieces voor hem is af. Loop voor.</t>
+  </si>
+  <si>
+    <t>Is goed bezig met de modular pieces.</t>
+  </si>
+  <si>
+    <t>Moet met Benjamin bespreken dat hij zulke grote changes bespreekt met de groep.</t>
   </si>
 </sst>
 </file>
@@ -436,7 +451,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +482,9 @@
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -477,7 +494,9 @@
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -487,7 +506,9 @@
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -497,7 +518,9 @@
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -507,8 +530,12 @@
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">

--- a/Producer Dingen/Scrumlog.xlsx
+++ b/Producer Dingen/Scrumlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Scrumweek 28 Nov - 2 Dec</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>Moet met Benjamin bespreken dat hij zulke grote changes bespreekt met de groep.</t>
+  </si>
+  <si>
+    <t>Scrumweek  5 - 9 Dec</t>
+  </si>
+  <si>
+    <t>Verder met Combat</t>
+  </si>
+  <si>
+    <t>Beginnen met enemy AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level bouwen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prisoners </t>
   </si>
 </sst>
 </file>
@@ -448,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,6 +557,72 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Producer Dingen/Scrumlog.xlsx
+++ b/Producer Dingen/Scrumlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Scrumweek 28 Nov - 2 Dec</t>
   </si>
@@ -91,6 +91,24 @@
   </si>
   <si>
     <t xml:space="preserve">Prisoners </t>
+  </si>
+  <si>
+    <t>Scrumweek  12 - 16 Dec</t>
+  </si>
+  <si>
+    <t>Combat gaat wat sloom</t>
+  </si>
+  <si>
+    <t>Enemy AI gaat wat sloom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Camera afgemaakt en boxes</t>
+  </si>
+  <si>
+    <t>Bezig geweest met het level maken</t>
+  </si>
+  <si>
+    <t>Prisoners zijn af en puntjes op de I van de modular pieces</t>
   </si>
 </sst>
 </file>
@@ -463,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +596,9 @@
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -588,10 +608,12 @@
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -599,29 +621,89 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Producer Dingen/Scrumlog.xlsx
+++ b/Producer Dingen/Scrumlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Scrumweek 28 Nov - 2 Dec</t>
   </si>
@@ -93,9 +93,6 @@
     <t xml:space="preserve">Prisoners </t>
   </si>
   <si>
-    <t>Scrumweek  12 - 16 Dec</t>
-  </si>
-  <si>
     <t>Combat gaat wat sloom</t>
   </si>
   <si>
@@ -109,6 +106,24 @@
   </si>
   <si>
     <t>Prisoners zijn af en puntjes op de I van de modular pieces</t>
+  </si>
+  <si>
+    <t>Scrumweek  9 - 13</t>
+  </si>
+  <si>
+    <t>verder met player animations</t>
+  </si>
+  <si>
+    <t>Verder enemy AI. En wanneer benjamin klaar is met de sprites UI WORK</t>
+  </si>
+  <si>
+    <t>Werkt lijst met props af</t>
+  </si>
+  <si>
+    <t>Werkt de level bouw verder af</t>
+  </si>
+  <si>
+    <t>UI elements</t>
   </si>
 </sst>
 </file>
@@ -483,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +612,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -609,7 +624,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -621,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -633,7 +648,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -645,13 +660,13 @@
         <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
@@ -663,19 +678,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
@@ -683,17 +702,21 @@
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
@@ -701,7 +724,9 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
